--- a/2023/BBA/Sem 2_result.xlsx
+++ b/2023/BBA/Sem 2_result.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -478,7 +478,7 @@
     <col width="13" customWidth="1" min="20" max="20"/>
     <col width="11" customWidth="1" min="21" max="21"/>
     <col width="12" customWidth="1" min="22" max="22"/>
-    <col width="10" customWidth="1" min="23" max="23"/>
+    <col width="11" customWidth="1" min="23" max="23"/>
     <col width="10" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
@@ -6207,7 +6207,11 @@
       <c r="V52" s="2" t="n">
         <v>62.13</v>
       </c>
-      <c r="W52" s="2" t="inlineStr"/>
+      <c r="W52" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="X52" s="2" t="n">
         <v>5.81</v>
       </c>
@@ -6535,7 +6539,11 @@
       <c r="V55" s="3" t="n">
         <v>60.27</v>
       </c>
-      <c r="W55" s="3" t="inlineStr"/>
+      <c r="W55" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="X55" s="3" t="n">
         <v>5.6</v>
       </c>
@@ -6643,7 +6651,11 @@
       <c r="V56" s="2" t="n">
         <v>60.27</v>
       </c>
-      <c r="W56" s="2" t="inlineStr"/>
+      <c r="W56" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="X56" s="2" t="n">
         <v>5.37</v>
       </c>
@@ -6751,7 +6763,11 @@
       <c r="V57" s="3" t="n">
         <v>59.2</v>
       </c>
-      <c r="W57" s="3" t="inlineStr"/>
+      <c r="W57" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="X57" s="3" t="n">
         <v>5.65</v>
       </c>
@@ -7079,7 +7095,11 @@
       <c r="V60" s="2" t="n">
         <v>57.33</v>
       </c>
-      <c r="W60" s="2" t="inlineStr"/>
+      <c r="W60" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="X60" s="2" t="n">
         <v>5</v>
       </c>
@@ -7187,7 +7207,11 @@
       <c r="V61" s="3" t="n">
         <v>56.27</v>
       </c>
-      <c r="W61" s="3" t="inlineStr"/>
+      <c r="W61" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="X61" s="3" t="n">
         <v>5.56</v>
       </c>
@@ -7515,7 +7539,11 @@
       <c r="V64" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="W64" s="2" t="inlineStr"/>
+      <c r="W64" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="X64" s="2" t="n">
         <v>4.58</v>
       </c>
@@ -7733,7 +7761,11 @@
       <c r="V66" s="2" t="n">
         <v>43.47</v>
       </c>
-      <c r="W66" s="2" t="inlineStr"/>
+      <c r="W66" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="X66" s="2" t="n">
         <v>3.42</v>
       </c>
@@ -7841,7 +7873,11 @@
       <c r="V67" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="W67" s="3" t="inlineStr"/>
+      <c r="W67" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="X67" s="3" t="n">
         <v>0</v>
       </c>
